--- a/CHI_CRIME_ANALYSIS.xlsx
+++ b/CHI_CRIME_ANALYSIS.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,35 +8,49 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SelfLearning\Projects\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B5D72E57-EF78-4C7E-BB02-8970F0F22D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72326ABC-2955-41C7-9A89-DF157F5F7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHI_CRIME_ANALYSIS" sheetId="1" r:id="rId1"/>
     <sheet name="tbl_3" sheetId="2" r:id="rId2"/>
     <sheet name="pareto chart" sheetId="3" r:id="rId3"/>
+    <sheet name="analysis" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">tbl_3!$B$2:$B$71</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">tbl_3!$J$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">tbl_3!$J$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">tbl_3!$J$2:$J$71</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">analysis!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">analysis!$F$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">analysis!$F$2:$F$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">tbl_3!$J$2:$J$71</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">tbl_3!$B$2:$B$71</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">tbl_3!$J$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">tbl_3!$J$2:$J$71</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">tbl_3!$B$2:$B$71</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">tbl_3!$J$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">tbl_3!$J$2:$J$71</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">tbl_3!$B$2:$B$71</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">analysis!$D$2:$D$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">analysis!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">analysis!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">analysis!$F$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">analysis!$F$2:$F$11</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">analysis!$D$2:$D$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">analysis!$E$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>COMMUNITY_AREA_NUMBER</t>
   </si>
@@ -277,12 +291,18 @@
   <si>
     <t>Edgewater</t>
   </si>
+  <si>
+    <t>community_area_name</t>
+  </si>
+  <si>
+    <t>total_crimes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +436,12 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -759,8 +785,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -806,7 +838,179 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -819,15 +1023,399 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Crimes vs Community Area Name</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>analysis!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_crimes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>analysis!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Chicago Lawn</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>West Englewood</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>West Town</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Auburn Gresham</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Near North Side</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Near West Side</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>North Lawndale</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Englewood</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Humboldt park</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Austin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>analysis!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-638F-4BF6-ABCF-A1C1D363E5BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="46"/>
+        <c:axId val="711163592"/>
+        <c:axId val="711161296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="711163592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711161296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="711161296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="711163592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -865,7 +1453,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{076D195A-41DB-418C-ADEF-F1D1BBD373D5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>crime_number</cx:v>
             </cx:txData>
           </cx:tx>
@@ -876,6 +1464,109 @@
           <cx:axisId val="1"/>
         </cx:series>
         <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{42C4A074-B4EB-4AF8-BC4F-85ED0FFEAF06}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Total Crimes vs Per Capita Income</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Trebuchet MS" panose="020B0603020202020204"/>
+            </a:rPr>
+            <a:t>Total Crimes vs Per Capita Income</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{ACF9A27D-AB04-469B-A5D4-F8AD3CF5B8E6}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>per_capita_income</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{AFC19981-43F4-4907-800C-D9F47B80355C}" formatIdx="1">
+          <cx:axisId val="2"/>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{5C05B669-1D11-4E6F-861E-C95D78E9F769}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:v>total_crimes</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="2" uniqueId="{1B3CBF56-A58E-4393-A2A7-80439DE5B7AE}" formatIdx="3">
           <cx:axisId val="2"/>
         </cx:series>
       </cx:plotAreaRegion>
@@ -938,7 +1629,1100 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1529,40 +3313,185 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57D26EEF-57AE-423A-885C-20C86677117C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67E80CB-C039-441E-B4DC-415DB1107BA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4676775" y="447675"/>
+              <a:ext cx="4572000" cy="3186112"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J71" totalsRowShown="0">
-  <autoFilter ref="A1:J71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J71" totalsRowShown="0">
+  <autoFilter ref="A1:J71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="COMMUNITY_AREA_NUMBER">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="COMMUNITY_AREA_NUMBER">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="COMMUNITY_AREA_NAME">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="COMMUNITY_AREA_NAME">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="percent_of_housing_crowded">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="percent_of_housing_crowded">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="percent_households_below_poverty">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="percent_households_below_poverty">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="percent_aged_16__unemployed">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="percent_aged_16__unemployed">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="percent_aged_25__without_high_school_diploma">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="percent_aged_25__without_high_school_diploma">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="per_capita_income">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="per_capita_income">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="hardship_index">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="hardship_index">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="total_college_enrollments">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="total_college_enrollments">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="crime_number">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="crime_number">
       <calculatedColumnFormula>CHI_CRIME_ANALYSIS!K2</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B23113A6-0FD6-44CE-A77B-260D28C09845}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="A1:B11" xr:uid="{B23113A6-0FD6-44CE-A77B-260D28C09845}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
+    <sortCondition ref="B3:B11"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FFE2C060-2005-4C8D-B971-5407A97D7E21}" name="community_area_name" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3277E78D-322C-43D2-82AC-1ADB452DA594}" name="total_crimes" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2686AC4F-B5C9-42E3-B882-006BA0E1059A}" name="Table3" displayName="Table3" ref="D1:F11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="D1:F11" xr:uid="{2686AC4F-B5C9-42E3-B882-006BA0E1059A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FD4A9793-E398-4CD9-AA66-78565872BF88}" name="community_area_name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{509E68F2-53C9-482A-B361-B26AFB8736DC}" name="per_capita_income" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{3E91936F-07E1-41C0-A04F-80874999A809}" name="total_crimes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1826,14 +3755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +3794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1900,7 +3829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1935,7 +3864,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1970,7 +3899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2005,7 +3934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2040,7 +3969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2075,7 +4004,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2110,7 +4039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2145,7 +4074,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2180,7 +4109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2215,7 +4144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2250,7 +4179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2285,7 +4214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2320,7 +4249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2355,7 +4284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2390,7 +4319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2425,7 +4354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2460,7 +4389,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2495,7 +4424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2530,7 +4459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2565,7 +4494,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2600,7 +4529,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2635,7 +4564,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2670,7 +4599,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2705,7 +4634,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2740,7 +4669,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2775,7 +4704,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2810,7 +4739,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2845,7 +4774,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2880,7 +4809,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2915,7 +4844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2950,7 +4879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2985,7 +4914,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3020,7 +4949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3055,7 +4984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3090,7 +5019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3125,7 +5054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3160,7 +5089,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3195,7 +5124,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3230,7 +5159,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3265,7 +5194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3300,7 +5229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3335,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3370,7 +5299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3405,7 +5334,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3440,7 +5369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3475,7 +5404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3510,7 +5439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3545,7 +5474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3580,7 +5509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3615,7 +5544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3650,7 +5579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3685,7 +5614,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3720,7 +5649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3755,7 +5684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3790,7 +5719,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3825,7 +5754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3860,7 +5789,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3895,7 +5824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3930,7 +5859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3965,7 +5894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4000,7 +5929,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4035,7 +5964,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4070,7 +5999,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4105,7 +6034,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4140,7 +6069,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4175,7 +6104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4210,7 +6139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4245,7 +6174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4280,7 +6209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4321,14 +6250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J1" activeCellId="1" sqref="F1:F1048576 J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.625" customWidth="1"/>
     <col min="2" max="2" width="27.25" customWidth="1"/>
@@ -4342,7 +6271,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4374,7 +6303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>CHI_CRIME_ANALYSIS!B2</f>
         <v>1</v>
@@ -4416,7 +6345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>CHI_CRIME_ANALYSIS!B3</f>
         <v>2</v>
@@ -4458,7 +6387,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>CHI_CRIME_ANALYSIS!B4</f>
         <v>3</v>
@@ -4500,7 +6429,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>CHI_CRIME_ANALYSIS!B5</f>
         <v>4</v>
@@ -4542,7 +6471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>CHI_CRIME_ANALYSIS!B6</f>
         <v>5</v>
@@ -4584,7 +6513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>CHI_CRIME_ANALYSIS!B7</f>
         <v>6</v>
@@ -4626,7 +6555,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>CHI_CRIME_ANALYSIS!B8</f>
         <v>7</v>
@@ -4668,7 +6597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>CHI_CRIME_ANALYSIS!B9</f>
         <v>8</v>
@@ -4710,7 +6639,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>CHI_CRIME_ANALYSIS!B10</f>
         <v>10</v>
@@ -4752,7 +6681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>CHI_CRIME_ANALYSIS!B11</f>
         <v>11</v>
@@ -4794,7 +6723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>CHI_CRIME_ANALYSIS!B12</f>
         <v>12</v>
@@ -4836,7 +6765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>CHI_CRIME_ANALYSIS!B13</f>
         <v>14</v>
@@ -4878,7 +6807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>CHI_CRIME_ANALYSIS!B14</f>
         <v>15</v>
@@ -4920,7 +6849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>CHI_CRIME_ANALYSIS!B15</f>
         <v>16</v>
@@ -4962,7 +6891,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>CHI_CRIME_ANALYSIS!B16</f>
         <v>17</v>
@@ -5004,7 +6933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>CHI_CRIME_ANALYSIS!B17</f>
         <v>18</v>
@@ -5046,7 +6975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>CHI_CRIME_ANALYSIS!B18</f>
         <v>19</v>
@@ -5088,7 +7017,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>CHI_CRIME_ANALYSIS!B19</f>
         <v>20</v>
@@ -5130,7 +7059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>CHI_CRIME_ANALYSIS!B20</f>
         <v>21</v>
@@ -5172,7 +7101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>CHI_CRIME_ANALYSIS!B21</f>
         <v>22</v>
@@ -5214,7 +7143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>CHI_CRIME_ANALYSIS!B22</f>
         <v>23</v>
@@ -5256,7 +7185,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>CHI_CRIME_ANALYSIS!B23</f>
         <v>24</v>
@@ -5298,7 +7227,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>CHI_CRIME_ANALYSIS!B24</f>
         <v>25</v>
@@ -5340,7 +7269,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>CHI_CRIME_ANALYSIS!B25</f>
         <v>26</v>
@@ -5382,7 +7311,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>CHI_CRIME_ANALYSIS!B26</f>
         <v>27</v>
@@ -5424,7 +7353,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>CHI_CRIME_ANALYSIS!B27</f>
         <v>28</v>
@@ -5466,7 +7395,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>CHI_CRIME_ANALYSIS!B28</f>
         <v>29</v>
@@ -5508,7 +7437,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>CHI_CRIME_ANALYSIS!B29</f>
         <v>30</v>
@@ -5550,7 +7479,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>CHI_CRIME_ANALYSIS!B30</f>
         <v>31</v>
@@ -5592,7 +7521,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>CHI_CRIME_ANALYSIS!B31</f>
         <v>32</v>
@@ -5634,7 +7563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>CHI_CRIME_ANALYSIS!B32</f>
         <v>33</v>
@@ -5676,7 +7605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>CHI_CRIME_ANALYSIS!B33</f>
         <v>35</v>
@@ -5718,7 +7647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>CHI_CRIME_ANALYSIS!B34</f>
         <v>37</v>
@@ -5760,7 +7689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>CHI_CRIME_ANALYSIS!B35</f>
         <v>38</v>
@@ -5802,7 +7731,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>CHI_CRIME_ANALYSIS!B36</f>
         <v>39</v>
@@ -5844,7 +7773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>CHI_CRIME_ANALYSIS!B37</f>
         <v>41</v>
@@ -5886,7 +7815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>CHI_CRIME_ANALYSIS!B38</f>
         <v>42</v>
@@ -5928,7 +7857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>CHI_CRIME_ANALYSIS!B39</f>
         <v>43</v>
@@ -5970,7 +7899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>CHI_CRIME_ANALYSIS!B40</f>
         <v>44</v>
@@ -6012,7 +7941,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>CHI_CRIME_ANALYSIS!B41</f>
         <v>45</v>
@@ -6054,7 +7983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>CHI_CRIME_ANALYSIS!B42</f>
         <v>46</v>
@@ -6096,7 +8025,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>CHI_CRIME_ANALYSIS!B43</f>
         <v>47</v>
@@ -6138,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>CHI_CRIME_ANALYSIS!B44</f>
         <v>48</v>
@@ -6180,7 +8109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>CHI_CRIME_ANALYSIS!B45</f>
         <v>49</v>
@@ -6222,7 +8151,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>CHI_CRIME_ANALYSIS!B46</f>
         <v>50</v>
@@ -6264,7 +8193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>CHI_CRIME_ANALYSIS!B47</f>
         <v>51</v>
@@ -6306,7 +8235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>CHI_CRIME_ANALYSIS!B48</f>
         <v>52</v>
@@ -6348,7 +8277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>CHI_CRIME_ANALYSIS!B49</f>
         <v>53</v>
@@ -6390,7 +8319,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>CHI_CRIME_ANALYSIS!B50</f>
         <v>54</v>
@@ -6432,7 +8361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>CHI_CRIME_ANALYSIS!B51</f>
         <v>55</v>
@@ -6474,7 +8403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>CHI_CRIME_ANALYSIS!B52</f>
         <v>56</v>
@@ -6516,7 +8445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>CHI_CRIME_ANALYSIS!B53</f>
         <v>58</v>
@@ -6558,7 +8487,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>CHI_CRIME_ANALYSIS!B54</f>
         <v>59</v>
@@ -6600,7 +8529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>CHI_CRIME_ANALYSIS!B55</f>
         <v>60</v>
@@ -6642,7 +8571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>CHI_CRIME_ANALYSIS!B56</f>
         <v>61</v>
@@ -6684,7 +8613,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>CHI_CRIME_ANALYSIS!B57</f>
         <v>62</v>
@@ -6726,7 +8655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>CHI_CRIME_ANALYSIS!B58</f>
         <v>63</v>
@@ -6768,7 +8697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>CHI_CRIME_ANALYSIS!B59</f>
         <v>64</v>
@@ -6810,7 +8739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>CHI_CRIME_ANALYSIS!B60</f>
         <v>65</v>
@@ -6852,7 +8781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>CHI_CRIME_ANALYSIS!B61</f>
         <v>66</v>
@@ -6894,7 +8823,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>CHI_CRIME_ANALYSIS!B62</f>
         <v>67</v>
@@ -6936,7 +8865,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>CHI_CRIME_ANALYSIS!B63</f>
         <v>68</v>
@@ -6978,7 +8907,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>CHI_CRIME_ANALYSIS!B64</f>
         <v>69</v>
@@ -7020,7 +8949,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>CHI_CRIME_ANALYSIS!B65</f>
         <v>70</v>
@@ -7062,7 +8991,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>CHI_CRIME_ANALYSIS!B66</f>
         <v>71</v>
@@ -7104,7 +9033,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>CHI_CRIME_ANALYSIS!B67</f>
         <v>72</v>
@@ -7146,7 +9075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>CHI_CRIME_ANALYSIS!B68</f>
         <v>73</v>
@@ -7188,7 +9117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>CHI_CRIME_ANALYSIS!B69</f>
         <v>75</v>
@@ -7230,7 +9159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>CHI_CRIME_ANALYSIS!B70</f>
         <v>76</v>
@@ -7272,7 +9201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>CHI_CRIME_ANALYSIS!B71</f>
         <v>77</v>
@@ -7323,10 +9252,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -7335,4 +9264,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4383345D-7D7D-4783-A506-73C29829D1DE}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15957</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13781</v>
+      </c>
+      <c r="F3" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2">
+        <v>11888</v>
+      </c>
+      <c r="F4" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2">
+        <v>12034</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44689</v>
+      </c>
+      <c r="F6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>88669</v>
+      </c>
+      <c r="F7" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2">
+        <v>15528</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="2">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43198</v>
+      </c>
+      <c r="F9" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="2">
+        <v>11317</v>
+      </c>
+      <c r="F10" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>13231</v>
+      </c>
+      <c r="F11" s="2">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/CHI_CRIME_ANALYSIS.xlsx
+++ b/CHI_CRIME_ANALYSIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SelfLearning\Projects\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72326ABC-2955-41C7-9A89-DF157F5F7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4A4CA7-F6B7-4774-B76A-6FCC49123BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,11 @@
     <definedName name="_xlchart.v1.10" hidden="1">analysis!$E$2:$E$11</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">analysis!$F$1</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">analysis!$F$2:$F$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">analysis!$D$2:$D$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">analysis!$E$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">analysis!$E$2:$E$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">analysis!$F$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">analysis!$F$2:$F$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">tbl_3!$J$2:$J$71</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">analysis!$D$2:$D$11</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">analysis!$E$1</definedName>
@@ -856,25 +861,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF171717"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1009,6 +995,25 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1491,18 +1496,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1540,10 +1545,13 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{ACF9A27D-AB04-469B-A5D4-F8AD3CF5B8E6}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>per_capita_income</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:aggregation/>
@@ -1556,10 +1564,11 @@
         <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{5C05B669-1D11-4E6F-861E-C95D78E9F769}" formatIdx="2">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>total_crimes</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:dataLabels/>
           <cx:dataId val="1"/>
           <cx:layoutPr>
             <cx:aggregation/>
@@ -3472,26 +3481,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B23113A6-0FD6-44CE-A77B-260D28C09845}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B23113A6-0FD6-44CE-A77B-260D28C09845}" name="Table2" displayName="Table2" ref="A1:B11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:B11" xr:uid="{B23113A6-0FD6-44CE-A77B-260D28C09845}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
     <sortCondition ref="B3:B11"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FFE2C060-2005-4C8D-B971-5407A97D7E21}" name="community_area_name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{3277E78D-322C-43D2-82AC-1ADB452DA594}" name="total_crimes" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{FFE2C060-2005-4C8D-B971-5407A97D7E21}" name="community_area_name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3277E78D-322C-43D2-82AC-1ADB452DA594}" name="total_crimes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2686AC4F-B5C9-42E3-B882-006BA0E1059A}" name="Table3" displayName="Table3" ref="D1:F11" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2686AC4F-B5C9-42E3-B882-006BA0E1059A}" name="Table3" displayName="Table3" ref="D1:F11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="D1:F11" xr:uid="{2686AC4F-B5C9-42E3-B882-006BA0E1059A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FD4A9793-E398-4CD9-AA66-78565872BF88}" name="community_area_name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{509E68F2-53C9-482A-B361-B26AFB8736DC}" name="per_capita_income" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{3E91936F-07E1-41C0-A04F-80874999A809}" name="total_crimes" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FD4A9793-E398-4CD9-AA66-78565872BF88}" name="community_area_name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{509E68F2-53C9-482A-B361-B26AFB8736DC}" name="per_capita_income" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{3E91936F-07E1-41C0-A04F-80874999A809}" name="total_crimes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9270,8 +9279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4383345D-7D7D-4783-A506-73C29829D1DE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
